--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -18,14 +18,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午13:30--18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范各小组git及其日志结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00--21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +127,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +172,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +207,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +389,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>43661</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -37,10 +37,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下午13:30--18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>浅入实体关系抽取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -57,7 +53,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>晚上19:00--21:00</t>
+    <t>下午13:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-21:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,7 +392,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -422,13 +422,13 @@
         <v>43661</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -436,10 +436,10 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t>晚上19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午08:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午13:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步建立zutnlp-entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成至dao层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装Standford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Linux部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -389,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -400,7 +436,8 @@
     <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -440,6 +477,42 @@
       </c>
       <c r="D3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>43662</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,18 @@
   </si>
   <si>
     <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午08:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成zutnlp-entity后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -515,6 +527,20 @@
         <v>16</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>43663</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,26 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午14:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步学习发布部署服务器上的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,17 +457,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -541,6 +561,28 @@
         <v>21</v>
       </c>
     </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,19 +113,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>了解实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>初步学习发布部署服务器上的项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>了解实体关系抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅入</t>
+    <t>会出现端口未开情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用命令将端口号打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署前后端项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通读自然语言处理简明教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署 &amp; 发布部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭终端的同时项目也被关闭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +177,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,13 +192,38 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <stop position="0">
+          <color theme="0"/>
+        </stop>
+        <stop position="1">
+          <color theme="4" tint="0.59999389629810485"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,12 +238,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -457,36 +529,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>43661</v>
       </c>
@@ -500,7 +580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -511,7 +591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>43662</v>
       </c>
@@ -525,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
@@ -536,7 +616,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
@@ -547,7 +627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>43663</v>
       </c>
@@ -561,26 +641,71 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>43664</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,139 +37,175 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>规范各小组git及其日志结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午13:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午08:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午13:30-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成至dao层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封装Standford</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午08:00-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步完成zutnlp-entity后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午14:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步学习发布部署服务器上的项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会出现端口未开情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用命令将端口号打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署前后端项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通读自然语言处理简明教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭终端的同时项目也被关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>浅入实体关系抽取</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学习Linux部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步建立zutnlp-entity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署 &amp; 阅读文档资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署OSALS后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署OSALS后端与NLP前端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>规范各小组git及其日志结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午13:30-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:00-21:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午08:00-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午13:30-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上19:00-22:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步建立zutnlp-entity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成至dao层</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>封装Standford</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习Linux部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上午08:00-11:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步完成zutnlp-entity后端</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下午14:00-18:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>了解实体关系抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>浅入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解决方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步学习发布部署服务器上的项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>会出现端口未开情况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用命令将端口号打开</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布部署前后端项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通读自然语言处理简明教程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二章</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发布部署 &amp; 发布部署</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭终端的同时项目也被关闭</t>
+    <t>war包打进Tomcat/webapp下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web层发布部署</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.36.31.162:9898</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.36.31.162:8080/osals</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -560,10 +596,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -571,24 +607,24 @@
         <v>43661</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -596,35 +632,35 @@
         <v>43662</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -632,35 +668,35 @@
         <v>43663</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -668,44 +704,86 @@
         <v>43664</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>43665</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +206,22 @@
   </si>
   <si>
     <t>10.36.31.162:8080/osals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习jenkins、jira、wiki等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点迷茫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读资料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -568,7 +584,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -785,6 +801,18 @@
       <c r="B15" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,26 @@
   </si>
   <si>
     <t>阅读资料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文实体抽取与实体关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试Stanford英文实体抽取与实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试Stanford中文实体抽取、学习Python搭建Web</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入Spring Boot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,17 +601,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
@@ -814,6 +834,39 @@
         <v>50</v>
       </c>
     </row>
+    <row r="16" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>43666</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,6 +242,34 @@
   </si>
   <si>
     <t>浅入Spring Boot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体抽取完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体关系抽取速度太慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会明确本周目标、Stanford中文实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习Spring Boot、巩固发布部署服务至服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通读自然语言处理简明教程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -601,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -851,20 +879,59 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="18" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>55</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>43668</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,26 @@
   </si>
   <si>
     <t>通读自然语言处理简明教程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文实体关系抽取失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中英文转换抽取成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,7 +652,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -917,6 +937,15 @@
       <c r="C19" s="1" t="s">
         <v>60</v>
       </c>
+      <c r="D19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -925,6 +954,9 @@
       <c r="C20" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D20" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="21" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -932,6 +964,9 @@
       </c>
       <c r="C21" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,58 @@
   </si>
   <si>
     <t>中英文转换抽取成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nlp项目前后端连接（加上Stanford实体识别关系抽取）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完善Stanford中英文实体识别、实体关系抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署zutnlp-entity 重新发布部署nlp前端项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pip install ptltp失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pyltp的使用，邢朋举电脑已通，本机不通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整理学习计划与小组学习方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习并尝试Spring Boot、组内会议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中文实体关系抽取--中英文转换抽取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功，但是转换会造成不准确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,19 +701,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56" style="1" customWidth="1"/>
+    <col min="3" max="3" width="66.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="37.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="40.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="40.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
@@ -969,6 +1021,81 @@
         <v>65</v>
       </c>
     </row>
+    <row r="22" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>43669</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>43670</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -321,10 +321,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pyltp的使用，邢朋举电脑已通，本机不通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -342,6 +338,26 @@
   </si>
   <si>
     <t>成功，但是转换会造成不准确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Python3.6可以成功解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -704,7 +720,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1035,10 +1051,10 @@
         <v>68</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1071,13 +1087,16 @@
         <v>9</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1085,7 +1104,10 @@
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1093,7 +1115,13 @@
         <v>11</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -358,6 +358,50 @@
   </si>
   <si>
     <t>Python3.6可以成功解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用Spring Boot搭建一个简单的web页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了解CRF算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在服务器上发布部署Python后端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尝试利用CRF算法写出一个小例子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解上午所写的CRF算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整合总结，不骄不躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳住心态，一步一步慢慢来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心里有点浮躁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -717,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1124,6 +1168,75 @@
         <v>81</v>
       </c>
     </row>
+    <row r="28" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>43671</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>43672</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,62 @@
   </si>
   <si>
     <t>心里有点浮躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上午08:30-11:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下午14:10-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布部署zutnlp_pytorch项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待解决共用一个端口号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笨方法将flask写于一个中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕导致进度放缓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习RNN，并做到理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习LSTM，并做到浅入理解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1220,6 +1276,9 @@
       <c r="C31" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D31" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -1228,13 +1287,64 @@
       <c r="C32" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D32" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>93</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>43682</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,54 @@
   </si>
   <si>
     <t>学习LSTM，并做到浅入理解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习RNN的变体LSTM以及LSTM的变体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用pytorch简单实现LSTM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pytorch实现BiLSTM+CRF用于NER(命名实体识别)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开会展示上周小组进展情况并商讨解疑答惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头晕导致进度放缓，休息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从NN，CNN入手，了解神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对CRF至BiLSTMCRF发展过程有所了解</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -817,10 +865,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1347,6 +1395,75 @@
         <v>106</v>
       </c>
     </row>
+    <row r="37" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>43683</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>43684</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -506,6 +506,18 @@
   </si>
   <si>
     <t>对CRF至BiLSTMCRF发展过程有所了解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习了双曲正切函数，Sigmoid，Softmax函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做到了举一反三，整合对比学习</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -867,8 +879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1455,6 +1467,15 @@
       <c r="C41" s="1" t="s">
         <v>120</v>
       </c>
+      <c r="D41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="42" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -1462,6 +1483,9 @@
       </c>
       <c r="C42" s="1" t="s">
         <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,54 @@
   </si>
   <si>
     <t>做到了举一反三，整合对比学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用CNN实现命名实体识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年少轻狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用PyTorch搭建一个简单的神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解一个简单的神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践并理解一个简单的神经网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理解CNN，TextCNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反思总结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -877,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1479,13 +1527,79 @@
     </row>
     <row r="42" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>121</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43685</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>43686</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -566,6 +566,54 @@
   </si>
   <si>
     <t>反思总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浅入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据现有资料编写命名实体识别报告说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update NER规范并实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内会议，继续整改报告说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>晚上19:00-21:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用PyTorch实现BILSTM+CRF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现模型训练并测试model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>---</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -643,6 +691,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -925,10 +976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1585,6 +1636,9 @@
       <c r="C46" s="1" t="s">
         <v>134</v>
       </c>
+      <c r="D46" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="47" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
@@ -1593,6 +1647,9 @@
       <c r="C47" s="1" t="s">
         <v>135</v>
       </c>
+      <c r="D47" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="48" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
@@ -1600,6 +1657,99 @@
       </c>
       <c r="C48" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>43687</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>43689</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/201708044226刘研.xlsx
+++ b/doc/log/201708044226刘研.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="153">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -614,6 +614,22 @@
   </si>
   <si>
     <t>---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内会议，继续整改报告说明（延期）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习BILSTM、CRF、CRFSUIT思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习HMM思想，并对今天所学思想做总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组内讨论（主题：模型思想）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,10 +992,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1731,7 +1747,7 @@
         <v>143</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -1741,14 +1757,44 @@
       <c r="B55" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="C55" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="56" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C56" s="1" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>43690</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
         <v>114</v>
       </c>
     </row>
